--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3404.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3404.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.65035329407552</v>
+        <v>1.939086437225342</v>
       </c>
       <c r="B1">
-        <v>1.85049209680252</v>
+        <v>6.344685554504395</v>
       </c>
       <c r="C1">
-        <v>2.227671008435477</v>
+        <v>3.372495174407959</v>
       </c>
       <c r="D1">
-        <v>4.043455749443729</v>
+        <v>1.488076210021973</v>
       </c>
       <c r="E1">
-        <v>3.589445166161358</v>
+        <v>1.045774817466736</v>
       </c>
     </row>
   </sheetData>
